--- a/case_lgt.xlsx
+++ b/case_lgt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -167,12 +167,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Approve/Reject Case</x:t>
@@ -873,13 +867,13 @@
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>13</x:v>
@@ -889,10 +883,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -907,10 +901,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -925,10 +919,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -943,10 +937,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -961,10 +955,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -979,10 +973,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -997,10 +991,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1015,10 +1009,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
